--- a/biology/Botanique/Luculia/Luculia.xlsx
+++ b/biology/Botanique/Luculia/Luculia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Luculia (également appelée Luculie[1]) est un genre de plantes de la famille des Rubiacées. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luculia (également appelée Luculie) est un genre de plantes de la famille des Rubiacées. 
 Il se présente sous forme d'arbuste ou de petit arbre. On le trouvent généralement dans les maquis de montagne et en marges des bois ou des forêts des montagnes su sud est asiatique. La plante a de grandes feuilles de 20 à 35cm de long avec des veines saillantes, opposées et aux fleurs blanches, roses ou crème à 5 pétales, tubulaires disposées en forme d'ombelle ou de corymbe.
 </t>
         </is>
@@ -512,15 +524,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (12 janv. 2011)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (12 janv. 2011) :
 Luculia grandifolia Ghose (1952)
 Luculia gratissima (Wall.) Sweet (1826)
 Luculia intermedia Hutch. (1916)
 Luculia pinceana Hook. (1845)
 Luculia yunnanensis S.Y.Hu (1951)
-Selon NCBI  (12 janv. 2011)[3] :
+Selon NCBI  (12 janv. 2011) :
 Luculia grandifolia
 Luculia gratissima
 Luculia gratissima × Luculia tsetensis
